--- a/biology/Botanique/AHDB_Potatoes/AHDB_Potatoes.xlsx
+++ b/biology/Botanique/AHDB_Potatoes/AHDB_Potatoes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le AHDB Potatoes (Agriculture and Horticulture Development Board Potatoes, anciennement Potato Council) est au Royaume-Uni un organisme public non-gouvernemental (non-departmental public body), dont la mission est de développer et promouvoir le secteur d'activité de la pomme de terre.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il était connu sous le nom de British Potato Council (BPC) jusqu'en avril 2008, date à laquelle il fut repris par l'Agriculture and Horticulture Development Board. Le BPC a remplacé le Potato Marketing Board.
 </t>
@@ -542,7 +556,9 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses principales fonctions sont de :
 promouvoir les pommes de terre auprès des consommateurs nationaux et étrangers ;
@@ -578,13 +594,13 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Potato Council, qui a 56 employés, est financé exclusivement par une taxe obligatoire sur les producteurs de pommes de terre, et ne reçoit aucune subvention gouvernementale.
 Son siège se trouve à Cowley dans l'Oxfordshire. Il existe un bureau écossais à Newbridge dans le Midlothian et une station expérimentale (SBEU) à Sutton Bridge dans le Lincolnshire.
 Les droits prélevés sur les producteurs élèvent à environ 40 £ par tonne, et ceux prélevés sur les acheteurs à environ 17 £ par tonne.
-Station agricole expérimentale
-La station expérimentale est située entre la centrale thermique de Sutton Bridge et la route A17, en bordure de la Nene. C'est le principal centre de recherches sur la pomme de terre au Royaume-Uni.
 </t>
         </is>
       </c>
@@ -610,10 +626,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Station agricole expérimentale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La station expérimentale est située entre la centrale thermique de Sutton Bridge et la route A17, en bordure de la Nene. C'est le principal centre de recherches sur la pomme de terre au Royaume-Uni.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AHDB_Potatoes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/AHDB_Potatoes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Campagnes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Le Potato Council mène diverses campagnes de communication tout au long de l'année, parmi lesquelles :
 la National Chip Week (semaine nationale des frites), campagne destinée à améliorer la connaissance et la notoriété des frites et des marchands de frites. Elle se déroule dans la seconde semaine de février.
